--- a/DATA_goal/Junction_Flooding_433.xlsx
+++ b/DATA_goal/Junction_Flooding_433.xlsx
@@ -446,8 +446,8 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
@@ -462,9 +462,9 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="6" customWidth="1" min="26" max="26"/>
@@ -473,7 +473,7 @@
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>44782.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.54</v>
+        <v>5.38</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.17</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.12</v>
+        <v>11.19</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.34</v>
+        <v>13.38</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.77</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.17</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.37</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.68</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.81</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.85</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.45</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.22</v>
+        <v>72.19</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.31</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.51</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.25</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.32</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.06</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44782.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.11</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.54</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.57</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.92</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.05</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.91</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>2.68</v>
+        <v>26.75</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.46</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.92</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.83</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.9</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.33</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.02</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.89</v>
+        <v>8.91</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.6</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44782.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.67</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.34</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.52</v>
+        <v>15.21</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.49</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.97</v>
+        <v>19.68</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.77</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.21</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.56</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.56</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.37</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.69</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>7.83</v>
+        <v>78.27</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.56</v>
+        <v>15.65</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.17</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.82</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.55</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.36</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.63</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.23</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44782.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.37</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.82</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.39</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.9</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.47</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.47</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.82</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.88</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.27</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_433.xlsx
+++ b/DATA_goal/Junction_Flooding_433.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.84027777778</v>
+        <v>45114.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.38</v>
+        <v>24.021</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.21</v>
+        <v>16.687</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>4.255</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>13.17</v>
+        <v>50.696</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.19</v>
+        <v>41.946</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.04</v>
+        <v>18.904</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>13.38</v>
+        <v>63.181</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.97</v>
+        <v>29.086</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.77</v>
+        <v>12.432</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.17</v>
+        <v>19.179</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.37</v>
+        <v>19.925</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.16</v>
+        <v>20.923</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.68</v>
+        <v>6.036</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.81</v>
+        <v>18.798</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.85</v>
+        <v>26.508</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.45</v>
+        <v>15.598</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.832</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.42</v>
+        <v>2.606</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>72.19</v>
+        <v>278.79</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>14.31</v>
+        <v>52.368</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.64</v>
+        <v>17.351</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>8.51</v>
+        <v>34.892</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.25</v>
+        <v>18.126</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>2.393</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>6.98</v>
+        <v>31.289</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.07</v>
+        <v>15.326</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.07</v>
+        <v>13.706</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.32</v>
+        <v>16.029</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.73</v>
+        <v>20.711</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.77</v>
+        <v>3.641</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>11.06</v>
+        <v>55.941</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.76</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.19</v>
+        <v>21.693</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.84722222222</v>
+        <v>45114.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.12</v>
+        <v>13.452</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.11</v>
+        <v>9.433999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.716</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.54</v>
+        <v>28.652</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.56</v>
+        <v>23.745</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.08</v>
+        <v>10.586</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>43.392</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.5</v>
+        <v>16.288</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.82</v>
+        <v>7.014</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.81</v>
+        <v>10.695</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.87</v>
+        <v>11.379</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.57</v>
+        <v>11.97</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.73</v>
+        <v>3.383</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.92</v>
+        <v>10.527</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.05</v>
+        <v>14.853</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.91</v>
+        <v>8.986000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.613</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.23</v>
+        <v>0.978</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>26.75</v>
+        <v>152.921</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.46</v>
+        <v>29.534</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.92</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.83</v>
+        <v>19.595</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.87</v>
+        <v>10.45</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.3</v>
+        <v>1.316</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>4.9</v>
+        <v>20.448</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.77</v>
+        <v>8.583</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.33</v>
+        <v>7.78</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.8</v>
+        <v>9.099</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.02</v>
+        <v>11.916</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.42</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>8.91</v>
+        <v>39.253</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.6</v>
+        <v>5.402</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.23</v>
+        <v>12.149</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.85416666666</v>
+        <v>45114.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.67</v>
+        <v>10.569</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.34</v>
+        <v>7.495</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.127</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>15.21</v>
+        <v>22.594</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>12.49</v>
+        <v>18.733</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.52</v>
+        <v>8.318</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>19.68</v>
+        <v>33.954</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.77</v>
+        <v>12.798</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.07</v>
+        <v>5.545</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.21</v>
+        <v>8.407</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.56</v>
+        <v>9.022</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.56</v>
+        <v>9.481</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.81</v>
+        <v>2.658</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.37</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.9</v>
+        <v>11.676</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.69</v>
+        <v>7.1</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.041</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.32</v>
+        <v>0.639</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>78.27</v>
+        <v>118.573</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>15.65</v>
+        <v>23.179</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.07</v>
+        <v>7.635</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>10.17</v>
+        <v>15.39</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6</v>
+        <v>8.275</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.74</v>
+        <v>1.026</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>9.82</v>
+        <v>15.949</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.56</v>
+        <v>6.744</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.55</v>
+        <v>6.103</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.36</v>
+        <v>7.144</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.9</v>
+        <v>9.477</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>17.63</v>
+        <v>30.612</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.23</v>
+        <v>4.239</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.27</v>
+        <v>9.545</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.86111111111</v>
+        <v>45114.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.37</v>
+        <v>3.28</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.82</v>
+        <v>10.15</v>
       </c>
       <c r="F5" s="4" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>49.92</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="AA5" s="4" t="n">
         <v>3.07</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>15.47</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="X5" s="4" t="n">
+      <c r="AB5" s="4" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="AG5" s="4" t="n">
         <v>1.88</v>
       </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>0.98</v>
-      </c>
       <c r="AH5" s="4" t="n">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>32.57</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.9</v>
+        <v>4.34</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_433.xlsx
+++ b/DATA_goal/Junction_Flooding_433.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45114.50694444445</v>
+        <v>44782.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>24.021</v>
+        <v>5.378</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>16.687</v>
+        <v>5.209</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.255</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>50.696</v>
+        <v>13.173</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>41.946</v>
+        <v>11.188</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.904</v>
+        <v>5.041</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>63.181</v>
+        <v>13.381</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>29.086</v>
+        <v>7.973</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>12.432</v>
+        <v>3.774</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>19.179</v>
+        <v>6.167</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.925</v>
+        <v>6.371</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>20.923</v>
+        <v>6.162</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>6.036</v>
+        <v>1.68</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.798</v>
+        <v>4.805</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>26.508</v>
+        <v>6.849</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.598</v>
+        <v>4.447</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.832</v>
+        <v>0.297</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.606</v>
+        <v>0.425</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>278.79</v>
+        <v>72.19199999999999</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>52.368</v>
+        <v>14.308</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>17.351</v>
+        <v>4.642</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>34.892</v>
+        <v>8.505000000000001</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>18.126</v>
+        <v>6.25</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.393</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>31.289</v>
+        <v>6.977</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>15.326</v>
+        <v>4.068</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.706</v>
+        <v>5.066</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>16.029</v>
+        <v>6.321</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>20.711</v>
+        <v>6.735</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.641</v>
+        <v>0.773</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>55.941</v>
+        <v>11.064</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>3.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>21.693</v>
+        <v>5.189</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45114.51388888889</v>
+        <v>44782.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.452</v>
+        <v>2.124</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.433999999999999</v>
+        <v>2.114</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.716</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>28.652</v>
+        <v>5.539</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>23.745</v>
+        <v>4.562</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.586</v>
+        <v>2.08</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>43.392</v>
+        <v>9.644</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.288</v>
+        <v>3.498</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.014</v>
+        <v>1.824</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.695</v>
+        <v>2.811</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.379</v>
+        <v>2.868</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.97</v>
+        <v>2.57</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.383</v>
+        <v>0.733</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.527</v>
+        <v>1.915</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.853</v>
+        <v>3.05</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.986000000000001</v>
+        <v>1.91</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.613</v>
+        <v>0.133</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.978</v>
+        <v>0.23</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>152.921</v>
+        <v>26.753</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>29.534</v>
+        <v>6.464</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.717000000000001</v>
+        <v>1.919</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>19.595</v>
+        <v>3.828</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.45</v>
+        <v>2.873</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.316</v>
+        <v>0.296</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>20.448</v>
+        <v>4.899</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.583</v>
+        <v>1.765</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.78</v>
+        <v>2.331</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.099</v>
+        <v>2.799</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.916</v>
+        <v>3.022</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.294</v>
+        <v>0.419</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>39.253</v>
+        <v>8.914</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.402</v>
+        <v>1.599</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.149</v>
+        <v>2.225</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45114.52083333334</v>
+        <v>44782.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.569</v>
+        <v>6.668</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.495</v>
+        <v>5.336</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.127</v>
+        <v>0.127</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>22.594</v>
+        <v>15.206</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>18.733</v>
+        <v>12.489</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.318</v>
+        <v>5.522</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>33.954</v>
+        <v>19.676</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.798</v>
+        <v>8.772</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.545</v>
+        <v>4.068</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.407</v>
+        <v>6.209</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.022</v>
+        <v>6.562</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.481</v>
+        <v>6.564</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.658</v>
+        <v>1.808</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.271000000000001</v>
+        <v>5.369</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.676</v>
+        <v>7.903</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.1</v>
+        <v>4.694</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.041</v>
+        <v>0.137</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.639</v>
+        <v>0.315</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>118.573</v>
+        <v>78.274</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>23.179</v>
+        <v>15.648</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.635</v>
+        <v>5.074</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>15.39</v>
+        <v>10.165</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.275</v>
+        <v>5.998</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.026</v>
+        <v>0.739</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>15.949</v>
+        <v>9.817</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.744</v>
+        <v>4.562</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.103</v>
+        <v>4.552</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.144</v>
+        <v>5.361</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.477</v>
+        <v>6.9</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.784</v>
+        <v>0.281</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>30.612</v>
+        <v>17.635</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.239</v>
+        <v>3.226</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.545</v>
+        <v>6.266</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45114.52777777778</v>
+        <v>44782.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.8</v>
+        <v>1.502</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>1.365</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>3.819</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.392</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>8.965</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>2.382</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.846</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.279</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>2.175</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>15.473</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>4.474</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.279</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>2.817</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>4.271</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.205</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>1.477</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1.721</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>1.996</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>8.455</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>1.564</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44782.86804398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>32.57</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AD6" s="4" t="n">
         <v>3.28</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>8.44</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>17.93</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>49.92</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>4.34</v>
+      <c r="AE6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_433.xlsx
+++ b/DATA_goal/Junction_Flooding_433.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.84027777778</v>
+        <v>45114.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.378</v>
+        <v>24.021</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.209</v>
+        <v>16.687</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>4.255</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>13.173</v>
+        <v>50.696</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.188</v>
+        <v>41.946</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.041</v>
+        <v>18.904</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>13.381</v>
+        <v>63.181</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.973</v>
+        <v>29.086</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.774</v>
+        <v>12.432</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.167</v>
+        <v>19.179</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.371</v>
+        <v>19.925</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.162</v>
+        <v>20.923</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.68</v>
+        <v>6.036</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.805</v>
+        <v>18.798</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.849</v>
+        <v>26.508</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.447</v>
+        <v>15.598</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.297</v>
+        <v>3.832</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.425</v>
+        <v>2.606</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>72.19199999999999</v>
+        <v>278.79</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>14.308</v>
+        <v>52.368</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.642</v>
+        <v>17.351</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>8.505000000000001</v>
+        <v>34.892</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.25</v>
+        <v>18.126</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>2.393</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>6.977</v>
+        <v>31.289</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.068</v>
+        <v>15.326</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.066</v>
+        <v>13.706</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.321</v>
+        <v>16.029</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.735</v>
+        <v>20.711</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.773</v>
+        <v>3.641</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>11.064</v>
+        <v>55.941</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.76</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.189</v>
+        <v>21.693</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.84722222222</v>
+        <v>45114.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.124</v>
+        <v>13.452</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.114</v>
+        <v>9.433999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.716</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.539</v>
+        <v>28.652</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.562</v>
+        <v>23.745</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.08</v>
+        <v>10.586</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>9.644</v>
+        <v>43.392</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.498</v>
+        <v>16.288</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.824</v>
+        <v>7.014</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.811</v>
+        <v>10.695</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.868</v>
+        <v>11.379</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.57</v>
+        <v>11.97</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.733</v>
+        <v>3.383</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.915</v>
+        <v>10.527</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.05</v>
+        <v>14.853</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.91</v>
+        <v>8.986000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.133</v>
+        <v>1.613</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.23</v>
+        <v>0.978</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>26.753</v>
+        <v>152.921</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.464</v>
+        <v>29.534</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.919</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.828</v>
+        <v>19.595</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.873</v>
+        <v>10.45</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.296</v>
+        <v>1.316</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>4.899</v>
+        <v>20.448</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.765</v>
+        <v>8.583</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.331</v>
+        <v>7.78</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.799</v>
+        <v>9.099</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.022</v>
+        <v>11.916</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.419</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>8.914</v>
+        <v>39.253</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.599</v>
+        <v>5.402</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.225</v>
+        <v>12.149</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.85416666666</v>
+        <v>45114.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.668</v>
+        <v>10.569</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.336</v>
+        <v>7.495</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.127</v>
+        <v>1.127</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>15.206</v>
+        <v>22.594</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>12.489</v>
+        <v>18.733</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.522</v>
+        <v>8.318</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>19.676</v>
+        <v>33.954</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.772</v>
+        <v>12.798</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.068</v>
+        <v>5.545</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.209</v>
+        <v>8.407</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.562</v>
+        <v>9.022</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.564</v>
+        <v>9.481</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.808</v>
+        <v>2.658</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.369</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.903</v>
+        <v>11.676</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.694</v>
+        <v>7.1</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.137</v>
+        <v>1.041</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.315</v>
+        <v>0.639</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>78.274</v>
+        <v>118.573</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>15.648</v>
+        <v>23.179</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.074</v>
+        <v>7.635</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>10.165</v>
+        <v>15.39</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.998</v>
+        <v>8.275</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.739</v>
+        <v>1.026</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>9.817</v>
+        <v>15.949</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.562</v>
+        <v>6.744</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.552</v>
+        <v>6.103</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.361</v>
+        <v>7.144</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.9</v>
+        <v>9.477</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.281</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>17.635</v>
+        <v>30.612</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.226</v>
+        <v>4.239</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.266</v>
+        <v>9.545</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.86111111111</v>
+        <v>45114.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.502</v>
+        <v>4.8</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.365</v>
+        <v>3.28</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.819</v>
+        <v>10.15</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.075</v>
+        <v>8.44</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.392</v>
+        <v>3.78</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>8.965</v>
+        <v>17.93</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.382</v>
+        <v>5.82</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.26</v>
+        <v>2.49</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.846</v>
+        <v>3.76</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.897</v>
+        <v>4.06</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.691</v>
+        <v>4.23</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.499</v>
+        <v>1.21</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.279</v>
+        <v>3.76</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.175</v>
+        <v>5.29</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.26</v>
+        <v>3.33</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.078</v>
+        <v>0.74</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.134</v>
+        <v>0.37</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.473</v>
+        <v>49.92</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.474</v>
+        <v>10.68</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.279</v>
+        <v>3.47</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.817</v>
+        <v>7.01</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.879</v>
+        <v>3.83</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.197</v>
+        <v>0.44</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.271</v>
+        <v>8.15</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.205</v>
+        <v>3.07</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.477</v>
+        <v>2.84</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.721</v>
+        <v>3.31</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.996</v>
+        <v>4.27</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.209</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>8.455</v>
+        <v>16.3</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.977</v>
+        <v>1.88</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.564</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>32.57</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.9</v>
+        <v>4.34</v>
       </c>
     </row>
   </sheetData>
